--- a/Jogos_do_Dia/2024-01-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,10 +691,10 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="K2" t="n">
-        <v>3.12</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
         <v>4.15</v>
@@ -718,10 +718,10 @@
         <v>3.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -787,10 +787,10 @@
         <v>1.28</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="3">
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="K3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
-        <v>4.25</v>
+        <v>3.7</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.57</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>

--- a/Jogos_do_Dia/2024-01-08_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-01-08_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="K2" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="M2" t="n">
         <v>1.44</v>
@@ -718,10 +718,10 @@
         <v>3.25</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="T2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.7</v>
+        <v>4.25</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>2.02</v>
+        <v>2.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
